--- a/data/trans_bre/P1421-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.357389672173984</v>
+        <v>0.1885417551788261</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.819459334834866</v>
+        <v>3.839213144185653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.958458733547948</v>
+        <v>-1.790855865322128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.477831619206451</v>
+        <v>1.646145092217364</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0367564677763336</v>
+        <v>-0.006312610277621694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.079746135670088</v>
+        <v>0.8449606255958977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.501649785461928</v>
+        <v>-0.4922381608285816</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2188849500168847</v>
+        <v>0.2254526596229153</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.948833653747783</v>
+        <v>6.723710323252155</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.929098967063446</v>
+        <v>10.17062734182389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.284050770197567</v>
+        <v>3.467030908162399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.764479713857542</v>
+        <v>7.5374645357172</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.183503786877047</v>
+        <v>3.172606903809843</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1.618578285467748</v>
+        <v>1.585386973630893</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.053564687572218</v>
+        <v>1.944972326523756</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         <v>4.388837261386741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.464318930678898</v>
+        <v>7.464318930678901</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.452885569293415</v>
@@ -747,7 +747,7 @@
         <v>5.619462782961993</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.254182798736335</v>
+        <v>2.254182798736336</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.72447937144464</v>
+        <v>2.805320244944833</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.41400191016431</v>
+        <v>1.441047405023183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.263722886773066</v>
+        <v>2.243245439270373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.568213238954212</v>
+        <v>4.405414704405102</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.582100852280549</v>
+        <v>0.5909243600667905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4042740918004578</v>
+        <v>0.6644738059572877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8991633533511738</v>
+        <v>0.6376267731538255</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8983608238270422</v>
+        <v>0.8615311921809058</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.113758518335416</v>
+        <v>9.042291291130296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.640575627043285</v>
+        <v>6.819032045798735</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.394680912093662</v>
+        <v>7.601131313471564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.51060118498967</v>
+        <v>10.683290170068</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.541858889167051</v>
+        <v>7.277818976854659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>16.81567489688605</v>
+        <v>21.2738272217791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>25.25527720026649</v>
+        <v>24.04552782353323</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.876760766976291</v>
+        <v>4.853734178041569</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8790984736096012</v>
+        <v>1.338580851316479</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.719135813945004</v>
+        <v>1.645747261829445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.590698627260777</v>
+        <v>3.029177100939579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.437377002664353</v>
+        <v>4.676869344687221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1982399196613056</v>
+        <v>0.2999892163824478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8044794945477183</v>
+        <v>0.4617626983540278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.161528533306085</v>
+        <v>1.405640510252643</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7023706695171094</v>
+        <v>0.7498384746577654</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.661742210705921</v>
+        <v>10.22328517735467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.789890569685191</v>
+        <v>8.402688004539369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.52380184738137</v>
+        <v>11.29246427331323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.1819310786106</v>
+        <v>14.26724840097254</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.801461908413273</v>
+        <v>5.613090325425395</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>9.116981297830618</v>
+        <v>8.443406757606851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>26.56573377000275</v>
+        <v>31.70918369871639</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.072454905693093</v>
+        <v>4.634500528143354</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>4.223099182048037</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.52797884830481</v>
+        <v>7.527978848304811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.719323592042121</v>
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.034494046995265</v>
+        <v>2.004398465332939</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.037937239276978</v>
+        <v>2.049744440412662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.775280028054512</v>
+        <v>2.689417512996386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.412866537290854</v>
+        <v>5.142440479517004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6397178788507202</v>
+        <v>0.6750698901543425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9984305221825909</v>
+        <v>1.0146379547743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.790183200549966</v>
+        <v>1.703672968020319</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.9947654034746236</v>
+        <v>0.8991319387487949</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.088583232281209</v>
+        <v>6.087868897834904</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.688328452138394</v>
+        <v>5.649614496767855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.947613367566546</v>
+        <v>5.806706062092573</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.05005294973437</v>
+        <v>9.718501402028263</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.333038744227896</v>
+        <v>3.57222098832887</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.537934427347937</v>
+        <v>5.544161360030601</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11.85383428197669</v>
+        <v>11.94319716729217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.714671568411043</v>
+        <v>2.601991825153133</v>
       </c>
     </row>
     <row r="16">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07278036133346284</v>
+        <v>0.3348273259594737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.355374199114733</v>
+        <v>3.439429442875781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.74049554494934</v>
+        <v>2.505042235118032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.375480256431395</v>
+        <v>5.731372317305886</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01680781594502389</v>
+        <v>-0.001409932309014004</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.615989444569703</v>
+        <v>1.364073180193108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7363661673322937</v>
+        <v>0.6376856050766836</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.822067311018422</v>
+        <v>0.797173522092665</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.508389893965917</v>
+        <v>5.711539338060458</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.369361334382325</v>
+        <v>7.67690982091114</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.108634570544608</v>
+        <v>7.292906588371528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.12427809610903</v>
+        <v>11.09913382824557</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.508467513791748</v>
+        <v>4.271184690067964</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14.2607391769828</v>
+        <v>16.17980936736599</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.693628620385273</v>
+        <v>4.518129885733853</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.34333804961035</v>
+        <v>3.261894042914891</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1135,7 @@
         <v>4.198299251743476</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.708826779623297</v>
+        <v>5.708826779623298</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>4.007783078831231</v>
@@ -1147,7 +1147,7 @@
         <v>5.953399508017259</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.89919667237311</v>
+        <v>1.899196672373111</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.953354409674276</v>
+        <v>1.8371335230123</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.79518670273576</v>
+        <v>0.7382825161157888</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.473699197078573</v>
+        <v>2.42853115190744</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.364563576226073</v>
+        <v>1.576314826406196</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7723652829434194</v>
+        <v>0.6254744754900748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0859293696392934</v>
+        <v>0.1553967223059649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.772384398994039</v>
+        <v>1.058658050338106</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1111825547042037</v>
+        <v>0.1547268531932273</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.999076567292379</v>
+        <v>5.169623239464324</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.674778861238166</v>
+        <v>4.572023773845593</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.746212915911218</v>
+        <v>5.613633027920493</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.351834254228095</v>
+        <v>8.261159707625545</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>17.26484653816318</v>
+        <v>17.52870631229121</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>11.69419405818564</v>
+        <v>12.32034350970385</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>6.477560134440029</v>
+        <v>7.087413379897155</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>4.0647625792505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.76569178160717</v>
+        <v>6.765691781607173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.40434561258693</v>
@@ -1245,7 +1245,7 @@
         <v>2.874585146080402</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.531306638025312</v>
+        <v>1.531306638025313</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.451335624295381</v>
+        <v>2.415461572850675</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.254171294088554</v>
+        <v>3.282574419558946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.18785454000872</v>
+        <v>3.1210958686139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.551114540534878</v>
+        <v>5.557879660531884</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8705684885096964</v>
+        <v>0.8418301761082724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2.165326904591654</v>
+        <v>2.099091111727817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.866896258394873</v>
+        <v>1.88309571841333</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.115401217960612</v>
+        <v>1.08029840137445</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.363147225064351</v>
+        <v>4.351618924880729</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.970814985148425</v>
+        <v>5.00604394527077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.974301272196476</v>
+        <v>5.001831408700586</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.956695976202714</v>
+        <v>7.981764465181436</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.159979890757948</v>
+        <v>2.151390115458448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>5.515886131942254</v>
+        <v>5.207700487401145</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.310430536546932</v>
+        <v>4.529443775049796</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.061719266407687</v>
+        <v>2.129119287281003</v>
       </c>
     </row>
     <row r="25">
